--- a/www/TNCR-ExcelTemplate.xlsx
+++ b/www/TNCR-ExcelTemplate.xlsx
@@ -5,12 +5,13 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Asian-Carp-MSU/TNCR-project/tncr-shiny-app/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F3676C-44EE-9645-9E93-6AAF7F39058E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DFB82A-F6FB-DC4E-8B18-B2C64C0FC60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="oTvSMVEgyyJi6/MggzO281HK+SwX4QLOvV8/EiBvSfCmHtzs2qQfA866WnKMMyIqe8EU+jqZH1aP97FH0hfRRQ==" workbookSaltValue="n6yUmnoR4y66ktKTO4wR7A==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="375">
   <si>
     <t>year</t>
   </si>
@@ -1135,6 +1136,18 @@
   </si>
   <si>
     <t>Embayment</t>
+  </si>
+  <si>
+    <t>date_set</t>
+  </si>
+  <si>
+    <t>date_pulled</t>
+  </si>
+  <si>
+    <t>time_set</t>
+  </si>
+  <si>
+    <t>time_pulled</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1640,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1641,6 +1654,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1996,1092 +2010,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V243"/>
+  <dimension ref="A1:X243"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="B1" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>372</v>
       </c>
       <c r="D1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="M2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B58" s="1"/>
-      <c r="C58" s="1"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="1"/>
-      <c r="C62" s="1"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B74" s="1"/>
-      <c r="C74" s="1"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="1"/>
-      <c r="C75" s="1"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B76" s="1"/>
-      <c r="C76" s="1"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B82" s="1"/>
-      <c r="C82" s="1"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B90" s="1"/>
-      <c r="C90" s="1"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B91" s="1"/>
-      <c r="C91" s="1"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B95" s="1"/>
-      <c r="C95" s="1"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B96" s="1"/>
-      <c r="C96" s="1"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B99" s="1"/>
-      <c r="C99" s="1"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B100" s="1"/>
-      <c r="C100" s="1"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B101" s="1"/>
-      <c r="C101" s="1"/>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B102" s="1"/>
-      <c r="C102" s="1"/>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B103" s="1"/>
-      <c r="C103" s="1"/>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B106" s="1"/>
-      <c r="C106" s="1"/>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B113" s="1"/>
-      <c r="C113" s="1"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B115" s="1"/>
-      <c r="C115" s="1"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B116" s="1"/>
-      <c r="C116" s="1"/>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B118" s="1"/>
-      <c r="C118" s="1"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B119" s="1"/>
-      <c r="C119" s="1"/>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B120" s="1"/>
-      <c r="C120" s="1"/>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B121" s="1"/>
-      <c r="C121" s="1"/>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B169" s="1"/>
-      <c r="C169" s="1"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B170" s="1"/>
-      <c r="C170" s="1"/>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B171" s="1"/>
-      <c r="C171" s="1"/>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B172" s="1"/>
-      <c r="C172" s="1"/>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B173" s="1"/>
-      <c r="C173" s="1"/>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B174" s="1"/>
-      <c r="C174" s="1"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B176" s="1"/>
-      <c r="C176" s="1"/>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B177" s="1"/>
-      <c r="C177" s="1"/>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B178" s="1"/>
-      <c r="C178" s="1"/>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B179" s="1"/>
-      <c r="C179" s="1"/>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B182" s="1"/>
-      <c r="C182" s="1"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B183" s="1"/>
-      <c r="C183" s="1"/>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B185" s="1"/>
-      <c r="C185" s="1"/>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B186" s="1"/>
-      <c r="C186" s="1"/>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B187" s="1"/>
-      <c r="C187" s="1"/>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B188" s="1"/>
-      <c r="C188" s="1"/>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B189" s="1"/>
-      <c r="C189" s="1"/>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B190" s="1"/>
-      <c r="C190" s="1"/>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B191" s="1"/>
-      <c r="C191" s="1"/>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B193" s="1"/>
-      <c r="C193" s="1"/>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B195" s="1"/>
-      <c r="C195" s="1"/>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B196" s="1"/>
-      <c r="C196" s="1"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B197" s="1"/>
-      <c r="C197" s="1"/>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B199" s="1"/>
-      <c r="C199" s="1"/>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B200" s="1"/>
-      <c r="C200" s="1"/>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B202" s="1"/>
-      <c r="C202" s="1"/>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B203" s="1"/>
-      <c r="C203" s="1"/>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B204" s="1"/>
-      <c r="C204" s="1"/>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B205" s="1"/>
-      <c r="C205" s="1"/>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B206" s="1"/>
-      <c r="C206" s="1"/>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B207" s="1"/>
-      <c r="C207" s="1"/>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B208" s="1"/>
-      <c r="C208" s="1"/>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B209" s="1"/>
-      <c r="C209" s="1"/>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B210" s="1"/>
-      <c r="C210" s="1"/>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B211" s="1"/>
-      <c r="C211" s="1"/>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B214" s="1"/>
-      <c r="C214" s="1"/>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B215" s="1"/>
-      <c r="C215" s="1"/>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B216" s="1"/>
-      <c r="C216" s="1"/>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B217" s="1"/>
-      <c r="C217" s="1"/>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B219" s="1"/>
-      <c r="C219" s="1"/>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B220" s="1"/>
-      <c r="C220" s="1"/>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B221" s="1"/>
-      <c r="C221" s="1"/>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B222" s="1"/>
-      <c r="C222" s="1"/>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B223" s="1"/>
-      <c r="C223" s="1"/>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B224" s="1"/>
-      <c r="C224" s="1"/>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B225" s="1"/>
-      <c r="C225" s="1"/>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B226" s="1"/>
-      <c r="C226" s="1"/>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B228" s="1"/>
-      <c r="C228" s="1"/>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B229" s="1"/>
-      <c r="C229" s="1"/>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B230" s="1"/>
-      <c r="C230" s="1"/>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B231" s="1"/>
-      <c r="C231" s="1"/>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B232" s="1"/>
-      <c r="C232" s="1"/>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B234" s="1"/>
-      <c r="C234" s="1"/>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B235" s="1"/>
-      <c r="C235" s="1"/>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B236" s="1"/>
-      <c r="C236" s="1"/>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B237" s="1"/>
-      <c r="C237" s="1"/>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B238" s="1"/>
-      <c r="C238" s="1"/>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B239" s="1"/>
-      <c r="C239" s="1"/>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B240" s="1"/>
-      <c r="C240" s="1"/>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B243" s="1"/>
-      <c r="C243" s="1"/>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="O2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D114" s="1"/>
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+    </row>
+    <row r="128" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D134" s="1"/>
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D137" s="1"/>
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D139" s="1"/>
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D140" s="1"/>
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D141" s="1"/>
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D143" s="1"/>
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D147" s="1"/>
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D148" s="1"/>
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D151" s="1"/>
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D153" s="1"/>
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D154" s="1"/>
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D155" s="1"/>
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D156" s="1"/>
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D157" s="1"/>
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D158" s="1"/>
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D159" s="1"/>
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D160" s="1"/>
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D161" s="1"/>
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D163" s="1"/>
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D164" s="1"/>
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D166" s="1"/>
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D167" s="1"/>
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D168" s="1"/>
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D169" s="1"/>
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D170" s="1"/>
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D171" s="1"/>
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D172" s="1"/>
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D174" s="1"/>
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D175" s="1"/>
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D177" s="1"/>
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D178" s="1"/>
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D179" s="1"/>
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D180" s="1"/>
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D181" s="1"/>
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D182" s="1"/>
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D183" s="1"/>
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D184" s="1"/>
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D185" s="1"/>
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D189" s="1"/>
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D190" s="1"/>
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D192" s="1"/>
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D194" s="1"/>
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D195" s="1"/>
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D196" s="1"/>
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D197" s="1"/>
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D198" s="1"/>
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D200" s="1"/>
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D231" s="1"/>
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D232" s="1"/>
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D233" s="1"/>
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D234" s="1"/>
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D235" s="1"/>
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D236" s="1"/>
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D237" s="1"/>
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D238" s="1"/>
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D239" s="1"/>
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D240" s="1"/>
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D241" s="1"/>
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D242" s="1"/>
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D243" s="1"/>
+      <c r="E243" s="1"/>
     </row>
   </sheetData>
-  <dataValidations count="11">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
+  <dataValidations count="12">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1900</formula1>
       <formula2>2100</formula2>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576 C1:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576 C2:C1048576" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>1</formula1>
       <formula2>73415</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"Spring, Summer, Autumn, Winter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>"Embayment, Main Channel"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R1048576" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>0</formula1>
       <formula2>1000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>0</formula1>
       <formula2>25</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R1:R1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T1048576" xr:uid="{00000000-0002-0000-0000-000007000000}">
       <formula1>0</formula1>
       <formula2>2000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V1048576" xr:uid="{00000000-0002-0000-0000-000008000000}">
       <formula1>"F, M"</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W1048576" xr:uid="{00000000-0002-0000-0000-000009000000}">
       <formula1>0</formula1>
       <formula2>5000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X1048576" xr:uid="{00000000-0002-0000-0000-00000A000000}">
       <formula1>0</formula1>
       <formula2>50</formula2>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576" xr:uid="{75EBFD21-E31C-EA4F-BB31-574F790AE1D0}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3092,7 +3118,7 @@
           <x14:formula1>
             <xm:f>species_names!$B$2:$B$175</xm:f>
           </x14:formula1>
-          <xm:sqref>Q1:Q1048576</xm:sqref>
+          <xm:sqref>S2:S1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3303,6 +3329,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="FytQf8g6iiX3mzrVKGnmERA7GLIMT6veqVK754TON/vhXcOWdlxTCGY+tvOhfBt0TxxsSPDTAxgeh9tpLHPOQQ==" saltValue="TRBFawBLmf5M8zSUT9UJZA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3311,7 +3338,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4721,6 +4748,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="cYZMozV61InJheut4uSfXBeTkSLcRe7LikEFq4VrI/7VFXsh7XY24Ps0qH+KitbWZ/W+KZ1AXQVVJp5RwdMvSA==" saltValue="E/W1c3RqKDMPE3J+X2clMg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/www/TNCR-ExcelTemplate.xlsx
+++ b/www/TNCR-ExcelTemplate.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Documents/taylorstewart.github.io/www/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4DDB325-53D9-3A47-862F-0DCAAB38201A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BCD164-0B19-184A-912B-FA47EDFFEC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="760" windowWidth="21840" windowHeight="17460" activeTab="1" xr2:uid="{5730E460-EE7A-2D43-B8F8-A2B4014A3F03}"/>
+    <workbookView xWindow="8400" yWindow="760" windowWidth="21840" windowHeight="17460" activeTab="2" xr2:uid="{5730E460-EE7A-2D43-B8F8-A2B4014A3F03}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="2" r:id="rId2"/>
     <sheet name="species_names" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="405">
   <si>
     <t>year</t>
   </si>
@@ -1249,12 +1249,18 @@
   </si>
   <si>
     <t>site_habitat</t>
+  </si>
+  <si>
+    <t>unique identifier for sample</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1272,7 +1278,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1280,11 +1286,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1297,6 +1312,13 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -8265,8 +8287,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8278,16 +8300,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8358,7 +8380,7 @@
         <v>46</v>
       </c>
       <c r="D6" s="7">
-        <v>0.4375</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -8427,7 +8449,7 @@
       <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>355</v>
       </c>
     </row>
@@ -8498,7 +8520,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="5">
-        <v>22</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -8519,6 +8541,9 @@
       <c r="A18" t="s">
         <v>56</v>
       </c>
+      <c r="B18" t="s">
+        <v>404</v>
+      </c>
       <c r="C18" t="s">
         <v>50</v>
       </c>
@@ -8537,7 +8562,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="5">
-        <v>3</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -8648,8 +8673,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:C175"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8660,13 +8685,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="9" t="s">
         <v>402</v>
       </c>
     </row>
